--- a/trunk/EasiCab/Documents/ReviewLog/Database_ReviewLog.xlsx
+++ b/trunk/EasiCab/Documents/ReviewLog/Database_ReviewLog.xlsx
@@ -407,9 +407,6 @@
     </r>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>Database Design Documents</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:O8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2094,7 @@
       <c r="D8" s="59"/>
       <c r="E8" s="60"/>
       <c r="F8" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
@@ -2356,21 +2356,21 @@
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="53">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
@@ -2394,21 +2394,21 @@
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="12" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="51" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M13" s="51"/>
       <c r="N13" s="51"/>

--- a/trunk/EasiCab/Documents/ReviewLog/Database_ReviewLog.xlsx
+++ b/trunk/EasiCab/Documents/ReviewLog/Database_ReviewLog.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="345" yWindow="1815" windowWidth="11340" windowHeight="4950"/>
   </bookViews>
   <sheets>
-    <sheet name="design_documents_review" sheetId="6" r:id="rId1"/>
+    <sheet name="database_documents_review" sheetId="6" r:id="rId1"/>
     <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -1162,21 +1162,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,37 +1246,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,9 +1264,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,15 +1274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:EW119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1848,23 +1848,23 @@
     <row r="4" spans="1:153" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="2"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -2004,23 +2004,23 @@
     </row>
     <row r="5" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="25" t="s">
         <v>28</v>
       </c>
@@ -2032,23 +2032,23 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="73">
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59">
         <v>42586</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
       <c r="P6" s="24" t="s">
         <v>29</v>
       </c>
@@ -2060,23 +2060,23 @@
     </row>
     <row r="7" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="73" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="31" t="s">
         <v>31</v>
       </c>
@@ -2088,23 +2088,23 @@
     </row>
     <row r="8" spans="1:153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
@@ -2114,23 +2114,23 @@
     </row>
     <row r="9" spans="1:153" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="69"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
       <c r="P9" s="26" t="s">
         <v>15</v>
       </c>
@@ -4507,27 +4507,27 @@
     </row>
     <row r="118" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="71"/>
+      <c r="D118" s="82"/>
       <c r="E118" s="35">
         <f>COUNTA(O13:O117)-COUNTIF(O13:O117,"Not a Defect")</f>
         <v>0</v>
       </c>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="72"/>
-      <c r="M118" s="72"/>
-      <c r="N118" s="72"/>
-      <c r="O118" s="72"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="57"/>
-      <c r="R118" s="56"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+      <c r="N118" s="83"/>
+      <c r="O118" s="83"/>
+      <c r="P118" s="70"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="70"/>
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="2:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,6 +4552,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P118:R118"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:O118"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="C4:Q4"/>
@@ -4559,13 +4566,6 @@
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="P118:R118"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:O118"/>
   </mergeCells>
   <conditionalFormatting sqref="O49:O117 O12:O19">
     <cfRule type="containsText" dxfId="9" priority="37" stopIfTrue="1" operator="containsText" text="Fixed">
@@ -4674,18 +4674,18 @@
     </row>
     <row r="3" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4693,17 +4693,17 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="90"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -4711,17 +4711,17 @@
       <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="86"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4729,17 +4729,17 @@
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,17 +4747,17 @@
       <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="86"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="84"/>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4765,17 +4765,17 @@
       <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -4783,17 +4783,17 @@
       <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -4803,15 +4803,15 @@
       <c r="E10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="86"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="84"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -4821,15 +4821,15 @@
       <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="86"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="84"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4839,15 +4839,15 @@
       <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="86"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -4857,15 +4857,15 @@
       <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="86"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="84"/>
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -4875,15 +4875,15 @@
       <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="86"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="84"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -4891,17 +4891,17 @@
       <c r="C15" s="17">
         <v>7</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="86"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="84"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -4909,17 +4909,17 @@
       <c r="C16" s="17">
         <v>8</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="86"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="84"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4927,17 +4927,17 @@
       <c r="C17" s="21">
         <v>9</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -4956,13 +4956,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D15:L15"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="C3:L3"/>
@@ -4971,6 +4964,13 @@
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="D8:L8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D15:L15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.41" right="0.45" top="0.57999999999999996" bottom="0.41" header="0.32" footer="0.33"/>
